--- a/03_Figures/03_Maps/Data/At Risk of Poverty/Data per country/Finland.xlsx
+++ b/03_Figures/03_Maps/Data/At Risk of Poverty/Data per country/Finland.xlsx
@@ -6,325 +6,15 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="022_127z_2019" sheetId="2" r:id="rId2"/>
+    <x:sheet name="003_127z_2020" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:authors>
-    <x:author>DefaultAppPool</x:author>
-  </x:authors>
-  <x:commentList>
-    <x:comment ref="B4" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B5" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B6" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B7" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B8" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B9" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B10" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B11" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B12" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B13" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B14" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B15" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B16" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B17" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B18" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B19" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B20" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B21" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B22" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-    <x:comment ref="B23" authorId="0">
-      <x:text>
-        <x:r>
-          <x:rPr>
-            <x:vertAlign val="baseline"/>
-            <x:sz val="9"/>
-            <x:color rgb="FF000000"/>
-            <x:rFont val="Tahoma"/>
-            <x:family val="2"/>
-          </x:rPr>
-          <x:t xml:space="preserve">Dwelling population, persons
-</x:t>
-        </x:r>
-      </x:text>
-    </x:comment>
-  </x:commentList>
-</x:comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>Dwelling population's risk of poverty and persistent risk of poverty by Region, Information and Year</x:t>
   </x:si>
@@ -332,13 +22,13 @@
     <x:t>2019</x:t>
   </x:si>
   <x:si>
-    <x:t>WHOLE COUNTRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dwelling population, persons</x:t>
+    <x:t>2020</x:t>
   </x:si>
   <x:si>
     <x:t>MK01 Uusimaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Share of persons at persistent risk of poverty in dwelling population</x:t>
   </x:si>
   <x:si>
     <x:t>MK02 Varsinais-Suomi</x:t>
@@ -415,16 +105,13 @@
     <x:t>Figures on children at risk of poverty are published only from 2010 onwards and on persistent risk of poverty from 2013 onwards. The income concept is not fully comparable prior to 2009 concerning child support and child maintenance allowance paid by the Social Insurance Institution. In this respect, the change to the income concept has an impact especially on the comparability over time of the at-risk-of-poverty rate of children, but it does not significantly impact the risk of poverty in the total population. More detailed information about the change to the income concept in the quality description of the statistics.</x:t>
   </x:si>
   <x:si>
-    <x:t>Information:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dwelling population, persons:</x:t>
-  </x:si>
-  <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20201218 08:00</x:t>
+    <x:t>Share of persons at persistent risk of poverty in dwelling population:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20211215 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -448,7 +135,7 @@
     <x:t>Units:</x:t>
   </x:si>
   <x:si>
-    <x:t>number</x:t>
+    <x:t>per cent</x:t>
   </x:si>
   <x:si>
     <x:t>Official statistics</x:t>
@@ -457,7 +144,7 @@
     <x:t>Internal reference code:</x:t>
   </x:si>
   <x:si>
-    <x:t>022_127z_2019</x:t>
+    <x:t>003_127z_2020</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -466,7 +153,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -850,366 +537,398 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E62"/>
+  <x:dimension ref="A1:D57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.310625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="5" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="6.090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:4">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
+      <x:c r="D3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
-        <x:v>5399397</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
+        <x:v>5.2</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="n">
+        <x:v>5.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
-        <x:v>1647017</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
-        <x:v>467199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
-        <x:v>167579</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
+        <x:v>8.8</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="n">
+        <x:v>9.7</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="n">
+        <x:v>9.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="n">
+        <x:v>9.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="n">
+        <x:v>8.8</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="n">
+        <x:v>8.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="n">
+        <x:v>8.1</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="n">
+        <x:v>7.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="n">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="n">
+        <x:v>9.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="n">
+        <x:v>8.7</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="n">
-        <x:v>195753</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="n">
-        <x:v>167032</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="n">
-        <x:v>125296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="n">
-        <x:v>212019</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="n">
-        <x:v>505416</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="n">
-        <x:v>269430</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="n">
-        <x:v>185469</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
+      <x:c r="D14" s="3" t="n">
+        <x:v>6.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
-        <x:v>177318</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
+        <x:v>10.3</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="n">
+        <x:v>10.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
-        <x:v>138953</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
+        <x:v>9.4</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="n">
+        <x:v>9.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
-        <x:v>238924</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
+        <x:v>11.9</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="n">
+        <x:v>11.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
-        <x:v>157686</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="n">
+        <x:v>7.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
-        <x:v>67047</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
+        <x:v>8.7</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
       <x:c r="A20" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
-        <x:v>405699</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
+        <x:v>9.7</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="n">
+        <x:v>9.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
       <x:c r="A21" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
-        <x:v>70433</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="n">
+        <x:v>8.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
       <x:c r="A22" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
-        <x:v>171853</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="n">
-        <x:v>29274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
+        <x:v>4.1</x:v>
+      </x:c>
+      <x:c r="D22" s="3" t="n">
+        <x:v>4.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
       <x:c r="A25" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
       <x:c r="A26" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
       <x:c r="A27" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
       <x:c r="A28" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="4" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:5">
+    <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:5">
+    <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:5">
+    <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:5">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:5">
-      <x:c r="A36" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:5">
-      <x:c r="A37" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:5">
+    <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:5">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:5">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:5">
-      <x:c r="A43" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:5">
-      <x:c r="A44" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:5">
-      <x:c r="A45" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:5">
-      <x:c r="A47" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:5">
-      <x:c r="A49" s="0" t="s">
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:5">
-      <x:c r="A50" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:5">
-      <x:c r="A51" s="0" t="s">
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:5">
-      <x:c r="A58" s="0" t="s">
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:5">
-      <x:c r="A61" s="0" t="s">
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="0" t="s">
         <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:5">
-      <x:c r="A62" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1217,7 +936,6 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:legacyDrawing r:id="rId6"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>